--- a/ExperimentSummaryFiles/Form 1_LibrarySamples.xlsx
+++ b/ExperimentSummaryFiles/Form 1_LibrarySamples.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niej\Desktop\UT arlington Sequencing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niej\Documents\UTHSC_cellranger_codes_files\ExperimentSummaryFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AD3CF89-6850-4122-BB3B-4B6A65B3236B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D185464-FF85-462A-A109-F75D496D8E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EF389418-3C2A-4A43-B499-D1D2363FE9A4}"/>
   </bookViews>
@@ -1226,9 +1226,15 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F7A6B5D-BB11-43DA-801D-02E0871F6FA7}" name="Table713252612235173" displayName="Table713252612235173" ref="A1:AF81" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A1:AF81" xr:uid="{C2743AAB-87E4-47C6-8A3F-B6B12841B198}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA81">
-    <sortCondition ref="A1:A81"/>
+  <autoFilter ref="A1:AF81" xr:uid="{C2743AAB-87E4-47C6-8A3F-B6B12841B198}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="SGLT2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:AF73">
+    <sortCondition ref="D1:D81"/>
   </sortState>
   <tableColumns count="32">
     <tableColumn id="14" xr3:uid="{8E288624-3BC9-467F-A6B8-7CF37552F773}" name="SQ_List" dataDxfId="31"/>
@@ -1569,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58D19BF-240F-4622-ADFC-2C25190207F7}">
   <dimension ref="A1:AF83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1708,7 +1714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1793,7 +1799,7 @@
       <c r="AC2" s="4"/>
       <c r="AF2" s="4"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1878,7 +1884,7 @@
       <c r="AC3" s="4"/>
       <c r="AF3" s="4"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1963,7 +1969,7 @@
       <c r="AC4" s="4"/>
       <c r="AF4" s="4"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2048,7 +2054,7 @@
       <c r="AC5" s="4"/>
       <c r="AF5" s="4"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2133,7 +2139,7 @@
       <c r="AC6" s="4"/>
       <c r="AF6" s="4"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2218,7 +2224,7 @@
       <c r="AC7" s="4"/>
       <c r="AF7" s="4"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2303,7 +2309,7 @@
       <c r="AC8" s="4"/>
       <c r="AF8" s="4"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2388,7 +2394,7 @@
       <c r="AC9" s="4"/>
       <c r="AF9" s="4"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2473,7 +2479,7 @@
       <c r="AC10" s="4"/>
       <c r="AF10" s="4"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2558,7 +2564,7 @@
       <c r="AC11" s="4"/>
       <c r="AF11" s="4"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2643,7 +2649,7 @@
       <c r="AC12" s="4"/>
       <c r="AF12" s="4"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2723,7 +2729,7 @@
       <c r="AC13" s="4"/>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2803,7 +2809,7 @@
       <c r="AC14" s="4"/>
       <c r="AF14" s="4"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2883,7 +2889,7 @@
       <c r="AC15" s="4"/>
       <c r="AF15" s="4"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2963,7 +2969,7 @@
       <c r="AC16" s="4"/>
       <c r="AF16" s="4"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3043,7 +3049,7 @@
       <c r="AC17" s="4"/>
       <c r="AF17" s="4"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3123,7 +3129,7 @@
       <c r="AC18" s="4"/>
       <c r="AF18" s="4"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3203,7 +3209,7 @@
       <c r="AC19" s="4"/>
       <c r="AF19" s="4"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3283,7 +3289,7 @@
       <c r="AC20" s="4"/>
       <c r="AF20" s="4"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3368,7 +3374,7 @@
       <c r="AC21" s="4"/>
       <c r="AF21" s="4"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3453,7 +3459,7 @@
       <c r="AC22" s="4"/>
       <c r="AF22" s="4"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3538,7 +3544,7 @@
       <c r="AC23" s="4"/>
       <c r="AF23" s="4"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3623,7 +3629,7 @@
       <c r="AC24" s="4"/>
       <c r="AF24" s="4"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3708,7 +3714,7 @@
       <c r="AC25" s="4"/>
       <c r="AF25" s="4"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3791,7 +3797,7 @@
       <c r="AC26" s="4"/>
       <c r="AF26" s="4"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3874,7 +3880,7 @@
       <c r="AC27" s="4"/>
       <c r="AF27" s="4"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3957,7 +3963,7 @@
       <c r="AC28" s="4"/>
       <c r="AF28" s="4"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -4040,7 +4046,7 @@
       <c r="AC29" s="4"/>
       <c r="AF29" s="4"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -4123,7 +4129,7 @@
       <c r="AC30" s="4"/>
       <c r="AF30" s="4"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -4206,7 +4212,7 @@
       <c r="AC31" s="4"/>
       <c r="AF31" s="4"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -4293,7 +4299,7 @@
       <c r="AC32" s="4"/>
       <c r="AF32" s="4"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -4380,7 +4386,7 @@
       <c r="AC33" s="4"/>
       <c r="AF33" s="4"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4467,7 +4473,7 @@
       <c r="AC34" s="4"/>
       <c r="AF34" s="4"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4580,11 +4586,11 @@
         <v>221</v>
       </c>
       <c r="I36" s="7">
-        <v>75000000</v>
+        <v>75000</v>
       </c>
       <c r="J36" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>750000000000</v>
+        <v>750000000</v>
       </c>
       <c r="K36" s="9">
         <v>0.25</v>
@@ -4641,7 +4647,7 @@
       <c r="AC36" s="4"/>
       <c r="AF36" s="4"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4728,7 +4734,7 @@
       <c r="AC37" s="4"/>
       <c r="AF37" s="4"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4815,7 +4821,7 @@
       <c r="AC38" s="4"/>
       <c r="AF38" s="4"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4900,7 +4906,7 @@
       <c r="AC39" s="4"/>
       <c r="AF39" s="4"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4985,7 +4991,7 @@
       <c r="AC40" s="4"/>
       <c r="AF40" s="4"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -5070,7 +5076,7 @@
       <c r="AC41" s="4"/>
       <c r="AF41" s="4"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -5155,7 +5161,7 @@
       <c r="AC42" s="4"/>
       <c r="AF42" s="4"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -5240,7 +5246,7 @@
       <c r="AC43" s="4"/>
       <c r="AF43" s="4"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -5325,7 +5331,7 @@
       <c r="AC44" s="4"/>
       <c r="AF44" s="4"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -5410,7 +5416,7 @@
       <c r="AC45" s="4"/>
       <c r="AF45" s="4"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -5495,7 +5501,7 @@
       <c r="AC46" s="4"/>
       <c r="AF46" s="4"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -5582,7 +5588,7 @@
       <c r="AC47" s="4"/>
       <c r="AF47" s="4"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -5669,7 +5675,7 @@
       <c r="AC48" s="4"/>
       <c r="AF48" s="4"/>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -5839,7 +5845,7 @@
       <c r="AC50" s="4"/>
       <c r="AF50" s="4"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -5926,68 +5932,66 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B52" s="4">
-        <v>20210707</v>
+        <v>20210408</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F52" s="5"/>
       <c r="G52" s="6">
-        <v>10000</v>
+        <v>8410</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>275</v>
+        <v>35</v>
       </c>
       <c r="I52" s="7">
-        <v>42800</v>
+        <v>28640</v>
       </c>
       <c r="J52" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>428000000</v>
+        <v>240862400</v>
       </c>
       <c r="K52" s="9">
-        <v>0.14299999999999999</v>
+        <v>7.8354096316771205E-2</v>
       </c>
       <c r="L52" s="8">
-        <v>2996000000</v>
+        <v>3074024350</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="Q52" s="8">
-        <v>2.84</v>
+        <v>3.26</v>
       </c>
       <c r="R52" s="8">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="S52" s="8">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="T52" s="8">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="U52" s="4">
-        <v>20210830</v>
+        <v>20211105</v>
       </c>
       <c r="V52" s="4" t="s">
         <v>39</v>
@@ -5996,85 +6000,93 @@
         <v>40</v>
       </c>
       <c r="X52" s="4" t="s">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="Y52" s="4" t="s">
         <v>42</v>
       </c>
       <c r="Z52" s="4" t="s">
-        <v>276</v>
+        <v>43</v>
       </c>
       <c r="AA52" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AB52" s="4"/>
+      <c r="AB52" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="AC52" s="4"/>
-      <c r="AF52" s="4"/>
+      <c r="AD52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF52" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B53" s="4">
-        <v>20210707</v>
+        <v>20211001</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>277</v>
+        <v>108</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>63</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F53" s="5"/>
       <c r="G53" s="6">
         <v>10000</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>275</v>
+        <v>88</v>
       </c>
       <c r="I53" s="7">
-        <v>42800</v>
+        <v>70000</v>
       </c>
       <c r="J53" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>428000000</v>
+        <v>700000000</v>
       </c>
       <c r="K53" s="9">
-        <v>0.14299999999999999</v>
+        <v>0.22694036044156773</v>
       </c>
       <c r="L53" s="8">
-        <v>2996000000</v>
+        <v>3084510832</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="Q53" s="8">
-        <v>2.84</v>
+        <v>3.14</v>
       </c>
       <c r="R53" s="8">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="S53" s="8">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="T53" s="8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="U53" s="4">
-        <v>20210830</v>
+        <v>20211105</v>
       </c>
       <c r="V53" s="4" t="s">
         <v>39</v>
@@ -6083,39 +6095,49 @@
         <v>40</v>
       </c>
       <c r="X53" s="4" t="s">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="Y53" s="4" t="s">
         <v>42</v>
       </c>
       <c r="Z53" s="4" t="s">
-        <v>276</v>
+        <v>43</v>
       </c>
       <c r="AA53" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB53" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="AB53" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="AC53" s="4"/>
-      <c r="AF53" s="4"/>
+      <c r="AD53" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF53" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54" s="4">
-        <v>20210713</v>
+        <v>20210623</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>279</v>
+        <v>93</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="G54" s="6">
         <v>10000</v>
@@ -6137,16 +6159,16 @@
         <v>2996000000</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="Q54" s="8">
         <v>2.84</v>
@@ -6185,7 +6207,7 @@
       <c r="AC54" s="4"/>
       <c r="AF54" s="4"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -6272,9 +6294,9 @@
       <c r="AC55" s="4"/>
       <c r="AF55" s="4"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B56" s="4">
         <v>20210623</v>
@@ -6292,23 +6314,23 @@
         <v>95</v>
       </c>
       <c r="G56" s="6">
-        <v>10000</v>
+        <v>7769</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>275</v>
+        <v>88</v>
       </c>
       <c r="I56" s="7">
-        <v>42800</v>
+        <v>58060</v>
       </c>
       <c r="J56" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>428000000</v>
+        <v>451068140</v>
       </c>
       <c r="K56" s="9">
-        <v>0.14299999999999999</v>
+        <v>0.14623652325043934</v>
       </c>
       <c r="L56" s="8">
-        <v>2996000000</v>
+        <v>3084510832</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>96</v>
@@ -6323,19 +6345,19 @@
         <v>98</v>
       </c>
       <c r="Q56" s="8">
-        <v>2.84</v>
+        <v>7.11</v>
       </c>
       <c r="R56" s="8">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="S56" s="8">
-        <v>8.6</v>
+        <v>22</v>
       </c>
       <c r="T56" s="8">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="U56" s="4">
-        <v>20210830</v>
+        <v>20211105</v>
       </c>
       <c r="V56" s="4" t="s">
         <v>39</v>
@@ -6344,20 +6366,30 @@
         <v>40</v>
       </c>
       <c r="X56" s="4" t="s">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="Y56" s="4" t="s">
         <v>42</v>
       </c>
       <c r="Z56" s="4" t="s">
-        <v>276</v>
+        <v>43</v>
       </c>
       <c r="AA56" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB56" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="AB56" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="AC56" s="4"/>
-      <c r="AF56" s="4"/>
+      <c r="AD56" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF56" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
@@ -6446,70 +6478,70 @@
       <c r="AC57" s="4"/>
       <c r="AF57" s="4"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B58" s="4">
-        <v>20210723</v>
+        <v>20210623</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>281</v>
+        <v>85</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>282</v>
+        <v>86</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G58" s="6">
-        <v>10000</v>
+        <v>14491</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>275</v>
+        <v>88</v>
       </c>
       <c r="I58" s="7">
-        <v>42800</v>
+        <v>36812</v>
       </c>
       <c r="J58" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>428000000</v>
+        <v>533442692</v>
       </c>
       <c r="K58" s="9">
-        <v>0.14299999999999999</v>
+        <v>0.17294239542485743</v>
       </c>
       <c r="L58" s="8">
-        <v>2996000000</v>
+        <v>3084510832</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P58" s="8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="8">
-        <v>2.84</v>
+        <v>8.34</v>
       </c>
       <c r="R58" s="8">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="S58" s="8">
-        <v>8.6</v>
+        <v>24</v>
       </c>
       <c r="T58" s="8">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="U58" s="4">
-        <v>20210830</v>
+        <v>20211105</v>
       </c>
       <c r="V58" s="4" t="s">
         <v>39</v>
@@ -6518,68 +6550,80 @@
         <v>40</v>
       </c>
       <c r="X58" s="4" t="s">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="Y58" s="4" t="s">
         <v>42</v>
       </c>
       <c r="Z58" s="4" t="s">
-        <v>276</v>
+        <v>43</v>
       </c>
       <c r="AA58" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB58" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="AB58" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="AC58" s="4"/>
-      <c r="AF58" s="4"/>
+      <c r="AD58" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE58" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF58" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B59" s="4">
-        <v>20210408</v>
+        <v>20210707</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F59" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="G59" s="6">
-        <v>8410</v>
+        <v>3870</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I59" s="7">
-        <v>28640</v>
+        <v>8371</v>
       </c>
       <c r="J59" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>240862400</v>
+        <v>32395770</v>
       </c>
       <c r="K59" s="9">
-        <v>7.8354096316771205E-2</v>
+        <v>1.0538553476324935E-2</v>
       </c>
       <c r="L59" s="8">
         <v>3074024350</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="P59" s="8" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="Q59" s="8">
         <v>3.26</v>
@@ -6619,7 +6663,7 @@
       </c>
       <c r="AC59" s="4"/>
       <c r="AD59" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="AE59" s="4" t="s">
         <v>47</v>
@@ -6628,7 +6672,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:32" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -6723,77 +6767,47 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B61" s="4">
-        <v>20210707</v>
+        <v>20211111</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>55</v>
+        <v>286</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="F61" s="5"/>
       <c r="G61" s="6">
-        <v>6367</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>35</v>
+        <v>10000</v>
       </c>
       <c r="I61" s="7">
-        <v>43457</v>
+        <v>50000</v>
       </c>
       <c r="J61" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>276690719</v>
+        <v>500000000</v>
       </c>
       <c r="K61" s="9">
-        <v>9.0009280180230189E-2</v>
+        <v>0.16210025745826268</v>
       </c>
       <c r="L61" s="8">
-        <v>3074024350</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="N61" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="O61" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P61" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q61" s="8">
-        <v>3.26</v>
-      </c>
-      <c r="R61" s="8">
-        <v>494</v>
-      </c>
-      <c r="S61" s="8">
-        <v>10</v>
-      </c>
-      <c r="T61" s="8">
-        <v>25</v>
-      </c>
-      <c r="U61" s="4">
-        <v>20211105</v>
-      </c>
-      <c r="V61" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W61" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>2500000000</v>
+      </c>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
       <c r="X61" s="4" t="s">
         <v>41</v>
       </c>
@@ -6801,74 +6815,61 @@
         <v>42</v>
       </c>
       <c r="Z61" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA61" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB61" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
-      <c r="AD61" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE61" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF61" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="AF61" s="4"/>
     </row>
     <row r="62" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="4">
-        <v>20210707</v>
+        <v>20210713</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G62" s="6">
-        <v>3870</v>
+        <v>11600</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I62" s="7">
-        <v>8371</v>
+        <v>58583</v>
       </c>
       <c r="J62" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>32395770</v>
+        <v>679562800</v>
       </c>
       <c r="K62" s="9">
-        <v>1.0538553476324935E-2</v>
+        <v>0.22106617340230242</v>
       </c>
       <c r="L62" s="8">
         <v>3074024350</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="P62" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q62" s="8">
         <v>3.26</v>
@@ -6917,77 +6918,47 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B63" s="4">
-        <v>20210713</v>
+        <v>20211102</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>67</v>
+        <v>283</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>69</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="F63" s="5"/>
       <c r="G63" s="6">
-        <v>11600</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>35</v>
+        <v>10000</v>
       </c>
       <c r="I63" s="7">
-        <v>58583</v>
+        <v>50000</v>
       </c>
       <c r="J63" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>679562800</v>
+        <v>500000000</v>
       </c>
       <c r="K63" s="9">
-        <v>0.22106617340230242</v>
+        <v>0.16210025745826268</v>
       </c>
       <c r="L63" s="8">
-        <v>3074024350</v>
-      </c>
-      <c r="M63" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="N63" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="O63" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="P63" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q63" s="8">
-        <v>3.26</v>
-      </c>
-      <c r="R63" s="8">
-        <v>494</v>
-      </c>
-      <c r="S63" s="8">
-        <v>10</v>
-      </c>
-      <c r="T63" s="8">
-        <v>25</v>
-      </c>
-      <c r="U63" s="4">
-        <v>20211105</v>
-      </c>
-      <c r="V63" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W63" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>2500000000</v>
+      </c>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
       <c r="X63" s="4" t="s">
         <v>41</v>
       </c>
@@ -6995,26 +6966,13 @@
         <v>42</v>
       </c>
       <c r="Z63" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA63" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB63" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
-      <c r="AD63" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE63" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF63" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="AF63" s="4"/>
     </row>
-    <row r="64" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:32" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -7208,77 +7166,47 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B66" s="4">
-        <v>20210623</v>
+        <v>20211110</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>85</v>
+        <v>285</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>87</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="F66" s="5"/>
       <c r="G66" s="6">
-        <v>14491</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>88</v>
+        <v>10000</v>
       </c>
       <c r="I66" s="7">
-        <v>36812</v>
+        <v>50000</v>
       </c>
       <c r="J66" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>533442692</v>
+        <v>500000000</v>
       </c>
       <c r="K66" s="9">
-        <v>0.17294239542485743</v>
+        <v>0.16210025745826268</v>
       </c>
       <c r="L66" s="8">
-        <v>3084510832</v>
-      </c>
-      <c r="M66" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="N66" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="O66" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="P66" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q66" s="8">
-        <v>8.34</v>
-      </c>
-      <c r="R66" s="8">
-        <v>518</v>
-      </c>
-      <c r="S66" s="8">
-        <v>24</v>
-      </c>
-      <c r="T66" s="8">
-        <v>25</v>
-      </c>
-      <c r="U66" s="4">
-        <v>20211105</v>
-      </c>
-      <c r="V66" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W66" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>2500000000</v>
+      </c>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
       <c r="X66" s="4" t="s">
         <v>41</v>
       </c>
@@ -7286,86 +7214,71 @@
         <v>42</v>
       </c>
       <c r="Z66" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA66" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB66" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
-      <c r="AD66" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE66" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF66" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="AF66" s="4"/>
     </row>
     <row r="67" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="4">
-        <v>20210623</v>
+        <v>20210826</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>95</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F67" s="5"/>
       <c r="G67" s="6">
-        <v>7769</v>
+        <v>10000</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>88</v>
       </c>
       <c r="I67" s="7">
-        <v>58060</v>
+        <v>70000</v>
       </c>
       <c r="J67" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>451068140</v>
+        <v>700000000</v>
       </c>
       <c r="K67" s="9">
-        <v>0.14623652325043934</v>
+        <v>0.22694036044156773</v>
       </c>
       <c r="L67" s="8">
         <v>3084510832</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="P67" s="8" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="Q67" s="8">
-        <v>7.11</v>
+        <v>3.14</v>
       </c>
       <c r="R67" s="8">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="S67" s="8">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="T67" s="8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="U67" s="4">
         <v>20211105</v>
@@ -7404,19 +7317,19 @@
     </row>
     <row r="68" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="4">
-        <v>20210826</v>
+        <v>20210924</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="6">
@@ -7439,22 +7352,22 @@
         <v>3084510832</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="P68" s="8" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="Q68" s="8">
         <v>3.14</v>
       </c>
       <c r="R68" s="8">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="S68" s="8">
         <v>10</v>
@@ -7497,68 +7410,70 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B69" s="4">
-        <v>20210924</v>
+        <v>20210707</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F69" s="5"/>
+        <v>274</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="G69" s="6">
         <v>10000</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>88</v>
+        <v>275</v>
       </c>
       <c r="I69" s="7">
-        <v>70000</v>
+        <v>42800</v>
       </c>
       <c r="J69" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>700000000</v>
+        <v>428000000</v>
       </c>
       <c r="K69" s="9">
-        <v>0.22694036044156773</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="L69" s="8">
-        <v>3084510832</v>
+        <v>2996000000</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="P69" s="8" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="Q69" s="8">
-        <v>3.14</v>
+        <v>2.84</v>
       </c>
       <c r="R69" s="8">
-        <v>457</v>
+        <v>498</v>
       </c>
       <c r="S69" s="8">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="T69" s="8">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="U69" s="4">
-        <v>20211105</v>
+        <v>20210830</v>
       </c>
       <c r="V69" s="4" t="s">
         <v>39</v>
@@ -7567,90 +7482,82 @@
         <v>40</v>
       </c>
       <c r="X69" s="4" t="s">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="Y69" s="4" t="s">
         <v>42</v>
       </c>
       <c r="Z69" s="4" t="s">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="AA69" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB69" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
-      <c r="AD69" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE69" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF69" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="AF69" s="4"/>
     </row>
     <row r="70" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B70" s="4">
-        <v>20211001</v>
+        <v>20210707</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F70" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="G70" s="6">
-        <v>10000</v>
+        <v>6367</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="I70" s="7">
-        <v>70000</v>
+        <v>43457</v>
       </c>
       <c r="J70" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>700000000</v>
+        <v>276690719</v>
       </c>
       <c r="K70" s="9">
-        <v>0.22694036044156773</v>
+        <v>9.0009280180230189E-2</v>
       </c>
       <c r="L70" s="8">
-        <v>3084510832</v>
+        <v>3074024350</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="P70" s="8" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="Q70" s="8">
-        <v>3.14</v>
+        <v>3.26</v>
       </c>
       <c r="R70" s="8">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="S70" s="8">
         <v>10</v>
       </c>
       <c r="T70" s="8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="U70" s="4">
         <v>20211105</v>
@@ -7671,7 +7578,7 @@
         <v>43</v>
       </c>
       <c r="AA70" s="4" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="AB70" s="4" t="s">
         <v>45</v>
@@ -7689,53 +7596,86 @@
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B71" s="4">
-        <v>20211102</v>
+        <v>20210707</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F71" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="G71" s="6">
         <v>10000</v>
       </c>
+      <c r="H71" s="4" t="s">
+        <v>275</v>
+      </c>
       <c r="I71" s="7">
-        <v>50000</v>
+        <v>42800</v>
       </c>
       <c r="J71" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>500000000</v>
+        <v>428000000</v>
       </c>
       <c r="K71" s="9">
-        <v>0.16210025745826268</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="L71" s="8">
-        <v>2500000000</v>
-      </c>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
+        <v>2996000000</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O71" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P71" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q71" s="8">
+        <v>2.84</v>
+      </c>
+      <c r="R71" s="8">
+        <v>498</v>
+      </c>
+      <c r="S71" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="T71" s="8">
+        <v>50</v>
+      </c>
+      <c r="U71" s="4">
+        <v>20210830</v>
+      </c>
+      <c r="V71" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W71" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X71" s="4" t="s">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="Y71" s="4" t="s">
         <v>42</v>
       </c>
       <c r="Z71" s="4" t="s">
-        <v>284</v>
+        <v>276</v>
+      </c>
+      <c r="AA71" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
@@ -7743,53 +7683,86 @@
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B72" s="4">
-        <v>20211110</v>
+        <v>20210713</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F72" s="5"/>
+        <v>280</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="G72" s="6">
         <v>10000</v>
       </c>
+      <c r="H72" s="4" t="s">
+        <v>275</v>
+      </c>
       <c r="I72" s="7">
-        <v>50000</v>
+        <v>42800</v>
       </c>
       <c r="J72" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>500000000</v>
+        <v>428000000</v>
       </c>
       <c r="K72" s="9">
-        <v>0.16210025745826268</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="L72" s="8">
-        <v>2500000000</v>
-      </c>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
+        <v>2996000000</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N72" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O72" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P72" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q72" s="8">
+        <v>2.84</v>
+      </c>
+      <c r="R72" s="8">
+        <v>498</v>
+      </c>
+      <c r="S72" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="T72" s="8">
+        <v>50</v>
+      </c>
+      <c r="U72" s="4">
+        <v>20210830</v>
+      </c>
+      <c r="V72" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W72" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X72" s="4" t="s">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="Y72" s="4" t="s">
         <v>42</v>
       </c>
       <c r="Z72" s="4" t="s">
-        <v>284</v>
+        <v>276</v>
+      </c>
+      <c r="AA72" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
@@ -7797,59 +7770,92 @@
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B73" s="4">
-        <v>20211111</v>
+        <v>20210723</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F73" s="5"/>
+        <v>282</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="G73" s="6">
         <v>10000</v>
       </c>
+      <c r="H73" s="4" t="s">
+        <v>275</v>
+      </c>
       <c r="I73" s="7">
-        <v>50000</v>
+        <v>42800</v>
       </c>
       <c r="J73" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>500000000</v>
+        <v>428000000</v>
       </c>
       <c r="K73" s="9">
-        <v>0.16210025745826268</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="L73" s="8">
-        <v>2500000000</v>
-      </c>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
+        <v>2996000000</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O73" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P73" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q73" s="8">
+        <v>2.84</v>
+      </c>
+      <c r="R73" s="8">
+        <v>498</v>
+      </c>
+      <c r="S73" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="T73" s="8">
+        <v>50</v>
+      </c>
+      <c r="U73" s="4">
+        <v>20210830</v>
+      </c>
+      <c r="V73" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W73" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X73" s="4" t="s">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="Y73" s="4" t="s">
         <v>42</v>
       </c>
       <c r="Z73" s="4" t="s">
-        <v>284</v>
+        <v>276</v>
+      </c>
+      <c r="AA73" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
       <c r="AF73" s="4"/>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -7892,7 +7898,7 @@
       <c r="AC74" s="4"/>
       <c r="AF74" s="4"/>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -7935,7 +7941,7 @@
       <c r="AC75" s="4"/>
       <c r="AF75" s="4"/>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -7997,7 +8003,7 @@
       <c r="AC76" s="4"/>
       <c r="AF76" s="4"/>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -8061,7 +8067,7 @@
       <c r="AC77" s="4"/>
       <c r="AF77" s="4"/>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -8125,7 +8131,7 @@
       <c r="AC78" s="4"/>
       <c r="AF78" s="4"/>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -8179,7 +8185,7 @@
       <c r="AC79" s="4"/>
       <c r="AF79" s="4"/>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -8233,7 +8239,7 @@
       <c r="AC80" s="4"/>
       <c r="AF80" s="4"/>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>

--- a/ExperimentSummaryFiles/Form 1_LibrarySamples.xlsx
+++ b/ExperimentSummaryFiles/Form 1_LibrarySamples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niej\Documents\UTHSC_cellranger_codes_files\ExperimentSummaryFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D185464-FF85-462A-A109-F75D496D8E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D3B13F-D12F-48DD-B530-6283753910D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EF389418-3C2A-4A43-B499-D1D2363FE9A4}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EF389418-3C2A-4A43-B499-D1D2363FE9A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="331">
   <si>
     <t>SQ_List</t>
   </si>
@@ -910,18 +910,9 @@
     <t>76649_V11</t>
   </si>
   <si>
-    <t>Lane_1</t>
-  </si>
-  <si>
-    <t>76654_V11</t>
-  </si>
-  <si>
     <t>76647_V11</t>
   </si>
   <si>
-    <t>Lane_2</t>
-  </si>
-  <si>
     <t>STARR_059</t>
   </si>
   <si>
@@ -934,21 +925,137 @@
     <t>STARR060</t>
   </si>
   <si>
-    <t>STARR_061</t>
-  </si>
-  <si>
-    <t>STARR061</t>
+    <t>STARR_063</t>
+  </si>
+  <si>
+    <t>STARR063</t>
+  </si>
+  <si>
+    <t>SI-TT-D4</t>
+  </si>
+  <si>
+    <t>GCAGTATAGG</t>
+  </si>
+  <si>
+    <t>GTGCACGGAA</t>
+  </si>
+  <si>
+    <t>SI-TT-H3</t>
+  </si>
+  <si>
+    <t>CCCGTTCTCG</t>
+  </si>
+  <si>
+    <t>CCAATCCGTC</t>
+  </si>
+  <si>
+    <t>P20220001</t>
+  </si>
+  <si>
+    <t>76643_V11</t>
+  </si>
+  <si>
+    <t>76656_V11</t>
+  </si>
+  <si>
+    <t>76658_V11</t>
+  </si>
+  <si>
+    <t>76660_V5</t>
+  </si>
+  <si>
+    <t>76661_V5</t>
+  </si>
+  <si>
+    <t>STARR_071</t>
+  </si>
+  <si>
+    <t>STARR_069</t>
+  </si>
+  <si>
+    <t>STARR_073</t>
+  </si>
+  <si>
+    <t>STARR_072</t>
+  </si>
+  <si>
+    <t>STARR_075</t>
+  </si>
+  <si>
+    <t>STARR_077</t>
+  </si>
+  <si>
+    <t>STARR_077_FZ</t>
+  </si>
+  <si>
+    <t>STARR_077_LS</t>
+  </si>
+  <si>
+    <t>STARR_079</t>
+  </si>
+  <si>
+    <t>SI-TT-B5</t>
+  </si>
+  <si>
+    <t>TCGGCTCTAC</t>
+  </si>
+  <si>
+    <t>AGACCATCGG</t>
+  </si>
+  <si>
+    <t>SI-TT-D5</t>
+  </si>
+  <si>
+    <t>TGGTTCGGGT</t>
+  </si>
+  <si>
+    <t>CTCCTGCCAC</t>
+  </si>
+  <si>
+    <t>SI-TT-H2</t>
+  </si>
+  <si>
+    <t>TAGCATAGTG</t>
+  </si>
+  <si>
+    <t>GACAGAGCCG</t>
+  </si>
+  <si>
+    <t>SI-TT-H4</t>
+  </si>
+  <si>
+    <t>AGTTTCCTGG</t>
+  </si>
+  <si>
+    <t>CTGTGTGGCA</t>
+  </si>
+  <si>
+    <t>SI-TT-H6</t>
+  </si>
+  <si>
+    <t>CCTATCCTCG</t>
+  </si>
+  <si>
+    <t>GTTAGTATTC</t>
+  </si>
+  <si>
+    <t>P20220002</t>
+  </si>
+  <si>
+    <t>P20220003</t>
+  </si>
+  <si>
+    <t>P20220004</t>
+  </si>
+  <si>
+    <t>P20220005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -973,12 +1080,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1001,9 +1115,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
@@ -1023,29 +1136,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="34">
     <dxf>
@@ -1225,16 +1337,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F7A6B5D-BB11-43DA-801D-02E0871F6FA7}" name="Table713252612235173" displayName="Table713252612235173" ref="A1:AF81" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A1:AF81" xr:uid="{C2743AAB-87E4-47C6-8A3F-B6B12841B198}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="SGLT2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:AF73">
-    <sortCondition ref="D1:D81"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F7A6B5D-BB11-43DA-801D-02E0871F6FA7}" name="Table713252612235173" displayName="Table713252612235173" ref="A1:AF94" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A1:AF94" xr:uid="{C2743AAB-87E4-47C6-8A3F-B6B12841B198}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF81">
+    <sortCondition ref="A65:A81"/>
   </sortState>
   <tableColumns count="32">
     <tableColumn id="14" xr3:uid="{8E288624-3BC9-467F-A6B8-7CF37552F773}" name="SQ_List" dataDxfId="31"/>
@@ -1573,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58D19BF-240F-4622-ADFC-2C25190207F7}">
-  <dimension ref="A1:AF83"/>
+  <dimension ref="A1:AF94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T81" sqref="T81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1714,7 +1820,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1799,7 +1905,7 @@
       <c r="AC2" s="4"/>
       <c r="AF2" s="4"/>
     </row>
-    <row r="3" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1884,7 +1990,7 @@
       <c r="AC3" s="4"/>
       <c r="AF3" s="4"/>
     </row>
-    <row r="4" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1969,7 +2075,7 @@
       <c r="AC4" s="4"/>
       <c r="AF4" s="4"/>
     </row>
-    <row r="5" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2054,7 +2160,7 @@
       <c r="AC5" s="4"/>
       <c r="AF5" s="4"/>
     </row>
-    <row r="6" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2139,7 +2245,7 @@
       <c r="AC6" s="4"/>
       <c r="AF6" s="4"/>
     </row>
-    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2224,7 +2330,7 @@
       <c r="AC7" s="4"/>
       <c r="AF7" s="4"/>
     </row>
-    <row r="8" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2309,7 +2415,7 @@
       <c r="AC8" s="4"/>
       <c r="AF8" s="4"/>
     </row>
-    <row r="9" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2394,7 +2500,7 @@
       <c r="AC9" s="4"/>
       <c r="AF9" s="4"/>
     </row>
-    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2479,7 +2585,7 @@
       <c r="AC10" s="4"/>
       <c r="AF10" s="4"/>
     </row>
-    <row r="11" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2564,7 +2670,7 @@
       <c r="AC11" s="4"/>
       <c r="AF11" s="4"/>
     </row>
-    <row r="12" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2649,7 +2755,7 @@
       <c r="AC12" s="4"/>
       <c r="AF12" s="4"/>
     </row>
-    <row r="13" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2729,7 +2835,7 @@
       <c r="AC13" s="4"/>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2809,7 +2915,7 @@
       <c r="AC14" s="4"/>
       <c r="AF14" s="4"/>
     </row>
-    <row r="15" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2889,7 +2995,7 @@
       <c r="AC15" s="4"/>
       <c r="AF15" s="4"/>
     </row>
-    <row r="16" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2969,7 +3075,7 @@
       <c r="AC16" s="4"/>
       <c r="AF16" s="4"/>
     </row>
-    <row r="17" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3049,7 +3155,7 @@
       <c r="AC17" s="4"/>
       <c r="AF17" s="4"/>
     </row>
-    <row r="18" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3129,7 +3235,7 @@
       <c r="AC18" s="4"/>
       <c r="AF18" s="4"/>
     </row>
-    <row r="19" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3209,7 +3315,7 @@
       <c r="AC19" s="4"/>
       <c r="AF19" s="4"/>
     </row>
-    <row r="20" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3289,7 +3395,7 @@
       <c r="AC20" s="4"/>
       <c r="AF20" s="4"/>
     </row>
-    <row r="21" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3374,7 +3480,7 @@
       <c r="AC21" s="4"/>
       <c r="AF21" s="4"/>
     </row>
-    <row r="22" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3459,7 +3565,7 @@
       <c r="AC22" s="4"/>
       <c r="AF22" s="4"/>
     </row>
-    <row r="23" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3544,7 +3650,7 @@
       <c r="AC23" s="4"/>
       <c r="AF23" s="4"/>
     </row>
-    <row r="24" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3629,7 +3735,7 @@
       <c r="AC24" s="4"/>
       <c r="AF24" s="4"/>
     </row>
-    <row r="25" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3714,7 +3820,7 @@
       <c r="AC25" s="4"/>
       <c r="AF25" s="4"/>
     </row>
-    <row r="26" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3797,7 +3903,7 @@
       <c r="AC26" s="4"/>
       <c r="AF26" s="4"/>
     </row>
-    <row r="27" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3880,7 +3986,7 @@
       <c r="AC27" s="4"/>
       <c r="AF27" s="4"/>
     </row>
-    <row r="28" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3917,10 +4023,10 @@
         <v>2500010000</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="O28" s="8" t="s">
         <v>38</v>
@@ -3963,7 +4069,7 @@
       <c r="AC28" s="4"/>
       <c r="AF28" s="4"/>
     </row>
-    <row r="29" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -4000,10 +4106,10 @@
         <v>2500010000</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="O29" s="8" t="s">
         <v>38</v>
@@ -4046,7 +4152,7 @@
       <c r="AC29" s="4"/>
       <c r="AF29" s="4"/>
     </row>
-    <row r="30" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -4083,10 +4189,10 @@
         <v>2500010000</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="O30" s="8" t="s">
         <v>38</v>
@@ -4129,7 +4235,7 @@
       <c r="AC30" s="4"/>
       <c r="AF30" s="4"/>
     </row>
-    <row r="31" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -4212,7 +4318,7 @@
       <c r="AC31" s="4"/>
       <c r="AF31" s="4"/>
     </row>
-    <row r="32" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -4299,7 +4405,7 @@
       <c r="AC32" s="4"/>
       <c r="AF32" s="4"/>
     </row>
-    <row r="33" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -4386,7 +4492,7 @@
       <c r="AC33" s="4"/>
       <c r="AF33" s="4"/>
     </row>
-    <row r="34" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4473,7 +4579,7 @@
       <c r="AC34" s="4"/>
       <c r="AF34" s="4"/>
     </row>
-    <row r="35" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4647,7 +4753,7 @@
       <c r="AC36" s="4"/>
       <c r="AF36" s="4"/>
     </row>
-    <row r="37" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4734,7 +4840,7 @@
       <c r="AC37" s="4"/>
       <c r="AF37" s="4"/>
     </row>
-    <row r="38" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4821,7 +4927,7 @@
       <c r="AC38" s="4"/>
       <c r="AF38" s="4"/>
     </row>
-    <row r="39" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4906,7 +5012,7 @@
       <c r="AC39" s="4"/>
       <c r="AF39" s="4"/>
     </row>
-    <row r="40" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4991,7 +5097,7 @@
       <c r="AC40" s="4"/>
       <c r="AF40" s="4"/>
     </row>
-    <row r="41" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -5076,7 +5182,7 @@
       <c r="AC41" s="4"/>
       <c r="AF41" s="4"/>
     </row>
-    <row r="42" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -5161,7 +5267,7 @@
       <c r="AC42" s="4"/>
       <c r="AF42" s="4"/>
     </row>
-    <row r="43" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -5246,7 +5352,7 @@
       <c r="AC43" s="4"/>
       <c r="AF43" s="4"/>
     </row>
-    <row r="44" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -5331,7 +5437,7 @@
       <c r="AC44" s="4"/>
       <c r="AF44" s="4"/>
     </row>
-    <row r="45" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -5416,7 +5522,7 @@
       <c r="AC45" s="4"/>
       <c r="AF45" s="4"/>
     </row>
-    <row r="46" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -5501,7 +5607,7 @@
       <c r="AC46" s="4"/>
       <c r="AF46" s="4"/>
     </row>
-    <row r="47" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -5588,7 +5694,7 @@
       <c r="AC47" s="4"/>
       <c r="AF47" s="4"/>
     </row>
-    <row r="48" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -5675,7 +5781,7 @@
       <c r="AC48" s="4"/>
       <c r="AF48" s="4"/>
     </row>
-    <row r="49" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -5845,7 +5951,7 @@
       <c r="AC50" s="4"/>
       <c r="AF50" s="4"/>
     </row>
-    <row r="51" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -5932,66 +6038,68 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4">
-        <v>20210408</v>
+        <v>20210707</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="5"/>
+        <v>274</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="G52" s="6">
-        <v>8410</v>
+        <v>10000</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>35</v>
+        <v>275</v>
       </c>
       <c r="I52" s="7">
-        <v>28640</v>
+        <v>42800</v>
       </c>
       <c r="J52" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>240862400</v>
+        <v>428000000</v>
       </c>
       <c r="K52" s="9">
-        <v>7.8354096316771205E-2</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="L52" s="8">
-        <v>3074024350</v>
+        <v>2996000000</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="Q52" s="8">
-        <v>3.26</v>
+        <v>2.84</v>
       </c>
       <c r="R52" s="8">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="S52" s="8">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="T52" s="8">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="U52" s="4">
-        <v>20211105</v>
+        <v>20210830</v>
       </c>
       <c r="V52" s="4" t="s">
         <v>39</v>
@@ -6000,93 +6108,85 @@
         <v>40</v>
       </c>
       <c r="X52" s="4" t="s">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="Y52" s="4" t="s">
         <v>42</v>
       </c>
       <c r="Z52" s="4" t="s">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="AA52" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AB52" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
-      <c r="AD52" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE52" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF52" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="AF52" s="4"/>
     </row>
-    <row r="53" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B53" s="4">
-        <v>20211001</v>
+        <v>20210707</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F53" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="G53" s="6">
         <v>10000</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>88</v>
+        <v>275</v>
       </c>
       <c r="I53" s="7">
-        <v>70000</v>
+        <v>42800</v>
       </c>
       <c r="J53" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>700000000</v>
+        <v>428000000</v>
       </c>
       <c r="K53" s="9">
-        <v>0.22694036044156773</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="L53" s="8">
-        <v>3084510832</v>
+        <v>2996000000</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="Q53" s="8">
-        <v>3.14</v>
+        <v>2.84</v>
       </c>
       <c r="R53" s="8">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="S53" s="8">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="T53" s="8">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="U53" s="4">
-        <v>20211105</v>
+        <v>20210830</v>
       </c>
       <c r="V53" s="4" t="s">
         <v>39</v>
@@ -6095,49 +6195,39 @@
         <v>40</v>
       </c>
       <c r="X53" s="4" t="s">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="Y53" s="4" t="s">
         <v>42</v>
       </c>
       <c r="Z53" s="4" t="s">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="AA53" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB53" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
-      <c r="AD53" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE53" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF53" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="AF53" s="4"/>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4">
-        <v>20210623</v>
+        <v>20210713</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>93</v>
+        <v>279</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>94</v>
+        <v>280</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="G54" s="6">
         <v>10000</v>
@@ -6159,16 +6249,16 @@
         <v>2996000000</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="Q54" s="8">
         <v>2.84</v>
@@ -6207,7 +6297,7 @@
       <c r="AC54" s="4"/>
       <c r="AF54" s="4"/>
     </row>
-    <row r="55" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -6294,9 +6384,9 @@
       <c r="AC55" s="4"/>
       <c r="AF55" s="4"/>
     </row>
-    <row r="56" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B56" s="4">
         <v>20210623</v>
@@ -6314,23 +6404,23 @@
         <v>95</v>
       </c>
       <c r="G56" s="6">
-        <v>7769</v>
+        <v>10000</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>88</v>
+        <v>275</v>
       </c>
       <c r="I56" s="7">
-        <v>58060</v>
+        <v>42800</v>
       </c>
       <c r="J56" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>451068140</v>
+        <v>428000000</v>
       </c>
       <c r="K56" s="9">
-        <v>0.14623652325043934</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="L56" s="8">
-        <v>3084510832</v>
+        <v>2996000000</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>96</v>
@@ -6345,19 +6435,19 @@
         <v>98</v>
       </c>
       <c r="Q56" s="8">
-        <v>7.11</v>
+        <v>2.84</v>
       </c>
       <c r="R56" s="8">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="S56" s="8">
-        <v>22</v>
+        <v>8.6</v>
       </c>
       <c r="T56" s="8">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="U56" s="4">
-        <v>20211105</v>
+        <v>20210830</v>
       </c>
       <c r="V56" s="4" t="s">
         <v>39</v>
@@ -6366,30 +6456,20 @@
         <v>40</v>
       </c>
       <c r="X56" s="4" t="s">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="Y56" s="4" t="s">
         <v>42</v>
       </c>
       <c r="Z56" s="4" t="s">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="AA56" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB56" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
-      <c r="AD56" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE56" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF56" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="AF56" s="4"/>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
@@ -6478,70 +6558,70 @@
       <c r="AC57" s="4"/>
       <c r="AF57" s="4"/>
     </row>
-    <row r="58" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4">
-        <v>20210623</v>
+        <v>20210723</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>85</v>
+        <v>281</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>86</v>
+        <v>282</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G58" s="6">
-        <v>14491</v>
+        <v>10000</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>88</v>
+        <v>275</v>
       </c>
       <c r="I58" s="7">
-        <v>36812</v>
+        <v>42800</v>
       </c>
       <c r="J58" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>533442692</v>
+        <v>428000000</v>
       </c>
       <c r="K58" s="9">
-        <v>0.17294239542485743</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="L58" s="8">
-        <v>3084510832</v>
+        <v>2996000000</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="P58" s="8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="Q58" s="8">
-        <v>8.34</v>
+        <v>2.84</v>
       </c>
       <c r="R58" s="8">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="S58" s="8">
-        <v>24</v>
+        <v>8.6</v>
       </c>
       <c r="T58" s="8">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="U58" s="4">
-        <v>20211105</v>
+        <v>20210830</v>
       </c>
       <c r="V58" s="4" t="s">
         <v>39</v>
@@ -6550,80 +6630,68 @@
         <v>40</v>
       </c>
       <c r="X58" s="4" t="s">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="Y58" s="4" t="s">
         <v>42</v>
       </c>
       <c r="Z58" s="4" t="s">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="AA58" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB58" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
-      <c r="AD58" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE58" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF58" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="AF58" s="4"/>
     </row>
-    <row r="59" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4">
-        <v>20210707</v>
+        <v>20210408</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>63</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F59" s="5"/>
       <c r="G59" s="6">
-        <v>3870</v>
+        <v>8410</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I59" s="7">
-        <v>8371</v>
+        <v>28640</v>
       </c>
       <c r="J59" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>32395770</v>
+        <v>240862400</v>
       </c>
       <c r="K59" s="9">
-        <v>1.0538553476324935E-2</v>
+        <v>7.8354096316771205E-2</v>
       </c>
       <c r="L59" s="8">
         <v>3074024350</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="P59" s="8" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="Q59" s="8">
         <v>3.26</v>
@@ -6663,7 +6731,7 @@
       </c>
       <c r="AC59" s="4"/>
       <c r="AD59" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="AE59" s="4" t="s">
         <v>47</v>
@@ -6672,7 +6740,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -6767,47 +6835,77 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4">
-        <v>20211111</v>
+        <v>20210707</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>286</v>
+        <v>55</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F61" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="G61" s="6">
-        <v>10000</v>
+        <v>6367</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="I61" s="7">
-        <v>50000</v>
+        <v>43457</v>
       </c>
       <c r="J61" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>500000000</v>
+        <v>276690719</v>
       </c>
       <c r="K61" s="9">
-        <v>0.16210025745826268</v>
+        <v>9.0009280180230189E-2</v>
       </c>
       <c r="L61" s="8">
-        <v>2500000000</v>
-      </c>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
+        <v>3074024350</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P61" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q61" s="8">
+        <v>3.26</v>
+      </c>
+      <c r="R61" s="8">
+        <v>494</v>
+      </c>
+      <c r="S61" s="8">
+        <v>10</v>
+      </c>
+      <c r="T61" s="8">
+        <v>25</v>
+      </c>
+      <c r="U61" s="4">
+        <v>20211105</v>
+      </c>
+      <c r="V61" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W61" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X61" s="4" t="s">
         <v>41</v>
       </c>
@@ -6815,61 +6913,74 @@
         <v>42</v>
       </c>
       <c r="Z61" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB61" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="AA61" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB61" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="AC61" s="4"/>
-      <c r="AF61" s="4"/>
+      <c r="AD61" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF61" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="62" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="4">
-        <v>20210713</v>
+        <v>20210707</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G62" s="6">
-        <v>11600</v>
+        <v>3870</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I62" s="7">
-        <v>58583</v>
+        <v>8371</v>
       </c>
       <c r="J62" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>679562800</v>
+        <v>32395770</v>
       </c>
       <c r="K62" s="9">
-        <v>0.22106617340230242</v>
+        <v>1.0538553476324935E-2</v>
       </c>
       <c r="L62" s="8">
         <v>3074024350</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="P62" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q62" s="8">
         <v>3.26</v>
@@ -6918,47 +7029,77 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4">
-        <v>20211102</v>
+        <v>20210713</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>283</v>
+        <v>67</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F63" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="G63" s="6">
-        <v>10000</v>
+        <v>11600</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="I63" s="7">
-        <v>50000</v>
+        <v>58583</v>
       </c>
       <c r="J63" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>500000000</v>
+        <v>679562800</v>
       </c>
       <c r="K63" s="9">
-        <v>0.16210025745826268</v>
+        <v>0.22106617340230242</v>
       </c>
       <c r="L63" s="8">
-        <v>2500000000</v>
-      </c>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
+        <v>3074024350</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O63" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P63" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q63" s="8">
+        <v>3.26</v>
+      </c>
+      <c r="R63" s="8">
+        <v>494</v>
+      </c>
+      <c r="S63" s="8">
+        <v>10</v>
+      </c>
+      <c r="T63" s="8">
+        <v>25</v>
+      </c>
+      <c r="U63" s="4">
+        <v>20211105</v>
+      </c>
+      <c r="V63" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W63" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X63" s="4" t="s">
         <v>41</v>
       </c>
@@ -6966,13 +7107,26 @@
         <v>42</v>
       </c>
       <c r="Z63" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB63" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="AA63" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB63" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="AC63" s="4"/>
-      <c r="AF63" s="4"/>
+      <c r="AD63" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF63" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="64" spans="1:32" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -7166,47 +7320,77 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4">
-        <v>20211110</v>
+        <v>20210623</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>285</v>
+        <v>85</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F66" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="G66" s="6">
-        <v>10000</v>
+        <v>14491</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="I66" s="7">
-        <v>50000</v>
+        <v>36812</v>
       </c>
       <c r="J66" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>500000000</v>
+        <v>533442692</v>
       </c>
       <c r="K66" s="9">
-        <v>0.16210025745826268</v>
+        <v>0.17294239542485743</v>
       </c>
       <c r="L66" s="8">
-        <v>2500000000</v>
-      </c>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
+        <v>3084510832</v>
+      </c>
+      <c r="M66" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O66" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="P66" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q66" s="8">
+        <v>8.34</v>
+      </c>
+      <c r="R66" s="8">
+        <v>518</v>
+      </c>
+      <c r="S66" s="8">
+        <v>24</v>
+      </c>
+      <c r="T66" s="8">
+        <v>25</v>
+      </c>
+      <c r="U66" s="4">
+        <v>20211105</v>
+      </c>
+      <c r="V66" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W66" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X66" s="4" t="s">
         <v>41</v>
       </c>
@@ -7214,71 +7398,86 @@
         <v>42</v>
       </c>
       <c r="Z66" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB66" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="AA66" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB66" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="AC66" s="4"/>
-      <c r="AF66" s="4"/>
+      <c r="AD66" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF66" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="67" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" s="4">
-        <v>20210826</v>
+        <v>20210623</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F67" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="G67" s="6">
-        <v>10000</v>
+        <v>7769</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>88</v>
       </c>
       <c r="I67" s="7">
-        <v>70000</v>
+        <v>58060</v>
       </c>
       <c r="J67" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>700000000</v>
+        <v>451068140</v>
       </c>
       <c r="K67" s="9">
-        <v>0.22694036044156773</v>
+        <v>0.14623652325043934</v>
       </c>
       <c r="L67" s="8">
         <v>3084510832</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="P67" s="8" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="Q67" s="8">
-        <v>3.14</v>
+        <v>7.11</v>
       </c>
       <c r="R67" s="8">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="S67" s="8">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="T67" s="8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="U67" s="4">
         <v>20211105</v>
@@ -7317,19 +7516,19 @@
     </row>
     <row r="68" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" s="4">
-        <v>20210924</v>
+        <v>20210826</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="6">
@@ -7352,22 +7551,22 @@
         <v>3084510832</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="P68" s="8" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="Q68" s="8">
         <v>3.14</v>
       </c>
       <c r="R68" s="8">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="S68" s="8">
         <v>10</v>
@@ -7410,70 +7609,68 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B69" s="4">
-        <v>20210707</v>
+        <v>20210924</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F69" s="5"/>
       <c r="G69" s="6">
         <v>10000</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>275</v>
+        <v>88</v>
       </c>
       <c r="I69" s="7">
-        <v>42800</v>
+        <v>70000</v>
       </c>
       <c r="J69" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>428000000</v>
+        <v>700000000</v>
       </c>
       <c r="K69" s="9">
-        <v>0.14299999999999999</v>
+        <v>0.22694036044156773</v>
       </c>
       <c r="L69" s="8">
-        <v>2996000000</v>
+        <v>3084510832</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="P69" s="8" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="Q69" s="8">
-        <v>2.84</v>
+        <v>3.14</v>
       </c>
       <c r="R69" s="8">
-        <v>498</v>
+        <v>457</v>
       </c>
       <c r="S69" s="8">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="T69" s="8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="U69" s="4">
-        <v>20210830</v>
+        <v>20211105</v>
       </c>
       <c r="V69" s="4" t="s">
         <v>39</v>
@@ -7482,82 +7679,90 @@
         <v>40</v>
       </c>
       <c r="X69" s="4" t="s">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="Y69" s="4" t="s">
         <v>42</v>
       </c>
       <c r="Z69" s="4" t="s">
-        <v>276</v>
+        <v>43</v>
       </c>
       <c r="AA69" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB69" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="AB69" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="AC69" s="4"/>
-      <c r="AF69" s="4"/>
+      <c r="AD69" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF69" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="70" spans="1:32" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B70" s="4">
-        <v>20210707</v>
+        <v>20211001</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F70" s="5"/>
       <c r="G70" s="6">
-        <v>6367</v>
+        <v>10000</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="I70" s="7">
-        <v>43457</v>
+        <v>70000</v>
       </c>
       <c r="J70" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>276690719</v>
+        <v>700000000</v>
       </c>
       <c r="K70" s="9">
-        <v>9.0009280180230189E-2</v>
+        <v>0.22694036044156773</v>
       </c>
       <c r="L70" s="8">
-        <v>3074024350</v>
+        <v>3084510832</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="P70" s="8" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="Q70" s="8">
-        <v>3.26</v>
+        <v>3.14</v>
       </c>
       <c r="R70" s="8">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="S70" s="8">
         <v>10</v>
       </c>
       <c r="T70" s="8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="U70" s="4">
         <v>20211105</v>
@@ -7578,7 +7783,7 @@
         <v>43</v>
       </c>
       <c r="AA70" s="4" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="AB70" s="4" t="s">
         <v>45</v>
@@ -7596,68 +7801,59 @@
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B71" s="4">
-        <v>20210707</v>
+        <v>20190909</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>277</v>
+        <v>198</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>63</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="F71" s="5"/>
       <c r="G71" s="6">
-        <v>10000</v>
+        <v>6512</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="I71" s="7">
-        <v>42800</v>
+        <v>25000</v>
       </c>
       <c r="J71" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>428000000</v>
+        <v>162800000</v>
       </c>
       <c r="K71" s="9">
-        <v>0.14299999999999999</v>
+        <v>5.2779843828410326E-2</v>
       </c>
       <c r="L71" s="8">
-        <v>2996000000</v>
+        <v>2954800000</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="P71" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q71" s="8">
-        <v>2.84</v>
-      </c>
-      <c r="R71" s="8">
-        <v>498</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
       <c r="S71" s="8">
-        <v>8.6</v>
+        <v>20</v>
       </c>
       <c r="T71" s="8">
-        <v>50</v>
-      </c>
-      <c r="U71" s="4">
-        <v>20210830</v>
+        <v>20</v>
       </c>
       <c r="V71" s="4" t="s">
         <v>39</v>
@@ -7666,85 +7862,73 @@
         <v>40</v>
       </c>
       <c r="X71" s="4" t="s">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="Y71" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Z71" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA71" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="Z71" s="4"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
       <c r="AF71" s="4"/>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B72" s="4">
-        <v>20210713</v>
+        <v>20190923</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>69</v>
+        <v>231</v>
       </c>
       <c r="G72" s="6">
-        <v>10000</v>
+        <v>12710</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="I72" s="7">
-        <v>42800</v>
+        <v>35000</v>
       </c>
       <c r="J72" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>428000000</v>
+        <v>444850000</v>
       </c>
       <c r="K72" s="9">
-        <v>0.14299999999999999</v>
+        <v>0.14422059906061629</v>
       </c>
       <c r="L72" s="8">
-        <v>2996000000</v>
+        <v>2954800000</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>71</v>
+        <v>233</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="P72" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q72" s="8">
-        <v>2.84</v>
-      </c>
-      <c r="R72" s="8">
-        <v>498</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
       <c r="S72" s="8">
-        <v>8.6</v>
+        <v>20</v>
       </c>
       <c r="T72" s="8">
-        <v>50</v>
-      </c>
-      <c r="U72" s="4">
-        <v>20210830</v>
+        <v>20</v>
       </c>
       <c r="V72" s="4" t="s">
         <v>39</v>
@@ -7753,85 +7937,73 @@
         <v>40</v>
       </c>
       <c r="X72" s="4" t="s">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="Y72" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Z72" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA72" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="Z72" s="4"/>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
       <c r="AF72" s="4"/>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B73" s="4">
-        <v>20210723</v>
+        <v>20201119</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="G73" s="6">
-        <v>10000</v>
+        <v>9886</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="I73" s="7">
-        <v>42800</v>
+        <v>25000</v>
       </c>
       <c r="J73" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>428000000</v>
+        <v>247150000</v>
       </c>
       <c r="K73" s="9">
-        <v>0.14299999999999999</v>
+        <v>8.0126157261619244E-2</v>
       </c>
       <c r="L73" s="8">
-        <v>2996000000</v>
+        <v>2954800000</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="P73" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q73" s="8">
-        <v>2.84</v>
-      </c>
-      <c r="R73" s="8">
-        <v>498</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
       <c r="S73" s="8">
-        <v>8.6</v>
+        <v>20</v>
       </c>
       <c r="T73" s="8">
-        <v>50</v>
-      </c>
-      <c r="U73" s="4">
-        <v>20210830</v>
+        <v>20</v>
       </c>
       <c r="V73" s="4" t="s">
         <v>39</v>
@@ -7840,317 +8012,424 @@
         <v>40</v>
       </c>
       <c r="X73" s="4" t="s">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="Y73" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Z73" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA73" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="Z73" s="4"/>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
       <c r="AF73" s="4"/>
     </row>
-    <row r="74" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" s="4"/>
+      <c r="B74" s="4">
+        <v>20211028</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>286</v>
+      </c>
       <c r="F74" s="5"/>
       <c r="G74" s="6">
         <v>10000</v>
       </c>
+      <c r="H74" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="I74" s="7">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="J74" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>500000000</v>
+        <v>700000000</v>
       </c>
       <c r="K74" s="9">
-        <v>0.16210025745826268</v>
+        <v>0.22694036044156773</v>
       </c>
       <c r="L74" s="8">
-        <v>2500000000</v>
-      </c>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
+        <v>2954800000</v>
+      </c>
+      <c r="M74" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="N74" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="O74" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="P74" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q74" s="8">
+        <v>5.24</v>
+      </c>
+      <c r="R74" s="8">
+        <v>454</v>
+      </c>
+      <c r="S74" s="8">
+        <v>20</v>
+      </c>
+      <c r="T74" s="8">
+        <v>20</v>
+      </c>
+      <c r="V74" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W74" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X74" s="4" t="s">
         <v>41</v>
       </c>
       <c r="Y74" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Z74" s="4" t="s">
-        <v>284</v>
-      </c>
+      <c r="Z74" s="4"/>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
       <c r="AF74" s="4"/>
     </row>
-    <row r="75" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" s="4"/>
+      <c r="B75" s="4">
+        <v>20211111</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>288</v>
+      </c>
       <c r="F75" s="5"/>
       <c r="G75" s="6">
         <v>10000</v>
       </c>
+      <c r="H75" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="I75" s="7">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="J75" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>500000000</v>
+        <v>700000000</v>
       </c>
       <c r="K75" s="9">
-        <v>0.16210025745826268</v>
+        <v>0.22694036044156773</v>
       </c>
       <c r="L75" s="8">
-        <v>2500000000</v>
-      </c>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
+        <v>2954800000</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="N75" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="O75" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P75" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q75" s="8">
+        <v>5.24</v>
+      </c>
+      <c r="R75" s="8">
+        <v>454</v>
+      </c>
+      <c r="S75" s="8">
+        <v>20</v>
+      </c>
+      <c r="T75" s="8">
+        <v>20</v>
+      </c>
+      <c r="V75" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W75" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X75" s="4" t="s">
         <v>41</v>
       </c>
       <c r="Y75" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Z75" s="4" t="s">
-        <v>284</v>
-      </c>
+      <c r="Z75" s="4"/>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
       <c r="AF75" s="4"/>
     </row>
-    <row r="76" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>75</v>
       </c>
       <c r="B76" s="4">
-        <v>20190909</v>
+        <v>20211210</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>198</v>
+        <v>289</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>198</v>
+        <v>290</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="6">
-        <v>6512</v>
+        <v>10000</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="I76" s="7">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="J76" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>162800000</v>
+        <v>700000000</v>
       </c>
       <c r="K76" s="9">
-        <v>5.2779843828410326E-2</v>
+        <v>0.22694036044156773</v>
       </c>
       <c r="L76" s="8">
         <v>2954800000</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>199</v>
+        <v>294</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>200</v>
+        <v>295</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>38</v>
+        <v>294</v>
       </c>
       <c r="P76" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
+        <v>296</v>
+      </c>
+      <c r="Q76" s="8">
+        <v>5.24</v>
+      </c>
+      <c r="R76" s="8">
+        <v>454</v>
+      </c>
+      <c r="S76" s="8">
+        <v>20</v>
+      </c>
+      <c r="T76" s="8">
+        <v>20</v>
+      </c>
+      <c r="V76" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W76" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X76" s="4" t="s">
         <v>41</v>
       </c>
       <c r="Y76" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Z76" s="4" t="s">
-        <v>287</v>
-      </c>
+      <c r="Z76" s="4"/>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
       <c r="AF76" s="4"/>
     </row>
-    <row r="77" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
       <c r="B77" s="4">
-        <v>20190923</v>
+        <v>20211011</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>230</v>
+        <v>298</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>231</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="F77" s="5"/>
       <c r="G77" s="6">
-        <v>12710</v>
+        <v>10000</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="I77" s="7">
-        <v>35000</v>
+        <v>70000</v>
       </c>
       <c r="J77" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>444850000</v>
+        <v>700000000</v>
       </c>
       <c r="K77" s="9">
-        <v>0.14422059906061629</v>
+        <v>0.25</v>
       </c>
       <c r="L77" s="8">
-        <v>2954800000</v>
+        <v>2800000000</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>233</v>
+        <v>313</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>38</v>
+        <v>312</v>
       </c>
       <c r="P77" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
+        <v>314</v>
+      </c>
+      <c r="Q77" s="8">
+        <v>2.83</v>
+      </c>
+      <c r="R77" s="8">
+        <v>461</v>
+      </c>
+      <c r="S77" s="8">
+        <v>10</v>
+      </c>
+      <c r="T77" s="8">
+        <v>30</v>
+      </c>
+      <c r="V77" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W77" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X77" s="4" t="s">
         <v>41</v>
       </c>
       <c r="Y77" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Z77" s="4" t="s">
-        <v>287</v>
-      </c>
+      <c r="Z77" s="4"/>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
       <c r="AF77" s="4"/>
     </row>
-    <row r="78" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
       <c r="B78" s="4">
-        <v>20201119</v>
+        <v>20211102</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>235</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="F78" s="5"/>
       <c r="G78" s="6">
-        <v>9886</v>
+        <v>10000</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="I78" s="7">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="J78" s="8">
         <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
-        <v>247150000</v>
+        <v>700000000</v>
       </c>
       <c r="K78" s="9">
-        <v>8.0126157261619244E-2</v>
+        <v>0.25</v>
       </c>
       <c r="L78" s="8">
-        <v>2954800000</v>
+        <v>2800000000</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>236</v>
+        <v>315</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>237</v>
+        <v>316</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>38</v>
+        <v>315</v>
       </c>
       <c r="P78" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
+        <v>317</v>
+      </c>
+      <c r="Q78" s="8">
+        <v>2.83</v>
+      </c>
+      <c r="R78" s="8">
+        <v>461</v>
+      </c>
+      <c r="S78" s="8">
+        <v>10</v>
+      </c>
+      <c r="T78" s="8">
+        <v>30</v>
+      </c>
+      <c r="V78" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W78" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X78" s="4" t="s">
         <v>41</v>
       </c>
       <c r="Y78" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Z78" s="4" t="s">
-        <v>287</v>
-      </c>
+      <c r="Z78" s="4"/>
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
       <c r="AF78" s="4"/>
     </row>
-    <row r="79" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
       <c r="B79" s="4">
-        <v>20201203</v>
+        <v>20211111</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="6">
         <v>10000</v>
       </c>
+      <c r="H79" s="4" t="s">
+        <v>327</v>
+      </c>
       <c r="I79" s="7">
         <v>70000</v>
       </c>
@@ -8159,52 +8438,75 @@
         <v>700000000</v>
       </c>
       <c r="K79" s="9">
-        <v>0.22694036044156773</v>
+        <v>0.25</v>
       </c>
       <c r="L79" s="8">
-        <v>2954800000</v>
-      </c>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
+        <v>2800000000</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O79" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P79" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q79" s="8">
+        <v>2.83</v>
+      </c>
+      <c r="R79" s="8">
+        <v>461</v>
+      </c>
+      <c r="S79" s="8">
+        <v>10</v>
+      </c>
+      <c r="T79" s="8">
+        <v>30</v>
+      </c>
+      <c r="V79" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W79" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X79" s="4" t="s">
         <v>41</v>
       </c>
       <c r="Y79" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Z79" s="4" t="s">
-        <v>287</v>
-      </c>
+      <c r="Z79" s="4"/>
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
       <c r="AF79" s="4"/>
     </row>
-    <row r="80" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
       <c r="B80" s="4">
-        <v>20211111</v>
+        <v>20211209</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="6">
         <v>10000</v>
       </c>
+      <c r="H80" s="4" t="s">
+        <v>327</v>
+      </c>
       <c r="I80" s="7">
         <v>70000</v>
       </c>
@@ -8213,52 +8515,75 @@
         <v>700000000</v>
       </c>
       <c r="K80" s="9">
-        <v>0.22694036044156773</v>
+        <v>0.25</v>
       </c>
       <c r="L80" s="8">
-        <v>2954800000</v>
-      </c>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="8"/>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="8"/>
-      <c r="R80" s="8"/>
-      <c r="S80" s="8"/>
-      <c r="T80" s="8"/>
+        <v>2800000000</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="O80" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="P80" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q80" s="8">
+        <v>2.83</v>
+      </c>
+      <c r="R80" s="8">
+        <v>461</v>
+      </c>
+      <c r="S80" s="8">
+        <v>10</v>
+      </c>
+      <c r="T80" s="8">
+        <v>30</v>
+      </c>
+      <c r="V80" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W80" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X80" s="4" t="s">
         <v>41</v>
       </c>
       <c r="Y80" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Z80" s="4" t="s">
-        <v>287</v>
-      </c>
+      <c r="Z80" s="4"/>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
       <c r="AF80" s="4"/>
     </row>
-    <row r="81" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
       <c r="B81" s="4">
-        <v>20211106</v>
+        <v>20211213</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="6">
         <v>10000</v>
       </c>
+      <c r="H81" s="4" t="s">
+        <v>328</v>
+      </c>
       <c r="I81" s="7">
         <v>70000</v>
       </c>
@@ -8267,65 +8592,948 @@
         <v>700000000</v>
       </c>
       <c r="K81" s="9">
-        <v>0.22694036044156773</v>
+        <v>0.25925925925925902</v>
       </c>
       <c r="L81" s="8">
-        <v>2954800000</v>
-      </c>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="8"/>
-      <c r="S81" s="8"/>
-      <c r="T81" s="8"/>
+        <v>2700000000</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="O81" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="P81" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q81" s="8">
+        <v>2.78</v>
+      </c>
+      <c r="R81" s="8">
+        <v>459</v>
+      </c>
+      <c r="S81" s="8">
+        <v>10</v>
+      </c>
+      <c r="T81" s="8">
+        <v>30</v>
+      </c>
+      <c r="V81" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W81" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X81" s="4" t="s">
         <v>41</v>
       </c>
       <c r="Y81" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Z81" s="4" t="s">
-        <v>287</v>
-      </c>
+      <c r="Z81" s="4"/>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
       <c r="AF81" s="4"/>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="H82" s="5"/>
-      <c r="I82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="7"/>
-      <c r="T82" s="7"/>
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4">
+        <v>20211001</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="6">
+        <v>15000</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="I82" s="7">
+        <v>20000</v>
+      </c>
+      <c r="J82" s="8">
+        <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <v>300000000</v>
+      </c>
+      <c r="K82" s="11">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L82" s="7">
+        <v>2700000000</v>
+      </c>
+      <c r="M82" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="N82" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="O82" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P82" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q82" s="8">
+        <v>2.78</v>
+      </c>
+      <c r="R82" s="8">
+        <v>459</v>
+      </c>
+      <c r="S82" s="7">
+        <v>10</v>
+      </c>
+      <c r="T82" s="7">
+        <v>30</v>
+      </c>
       <c r="U82" s="9"/>
-      <c r="V82" s="9"/>
-      <c r="W82" s="9"/>
-      <c r="Y82" s="8"/>
-      <c r="AD82" s="10"/>
-      <c r="AE82" s="10"/>
+      <c r="V82" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W82" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X82" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y82" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z82" s="4"/>
+      <c r="AB82" s="4"/>
+      <c r="AC82" s="4"/>
+      <c r="AF82" s="4"/>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="J83" s="11"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="8"/>
-      <c r="R83" s="8"/>
-      <c r="S83" s="8"/>
-      <c r="T83" s="8"/>
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4">
+        <v>20210924</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" s="6">
+        <v>15000</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="I83" s="7">
+        <v>20000</v>
+      </c>
+      <c r="J83" s="8">
+        <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <v>300000000</v>
+      </c>
+      <c r="K83" s="11">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L83" s="7">
+        <v>2700000000</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="N83" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O83" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="P83" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q83" s="8">
+        <v>2.78</v>
+      </c>
+      <c r="R83" s="8">
+        <v>459</v>
+      </c>
+      <c r="S83" s="8">
+        <v>10</v>
+      </c>
+      <c r="T83" s="8">
+        <v>30</v>
+      </c>
+      <c r="V83" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W83" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X83" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y83" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z83" s="4"/>
+      <c r="AB83" s="4"/>
+      <c r="AC83" s="4"/>
+      <c r="AF83" s="4"/>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4">
+        <v>20220120</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="I84" s="7">
+        <v>70000</v>
+      </c>
+      <c r="J84" s="8">
+        <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <v>700000000</v>
+      </c>
+      <c r="K84" s="11">
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="L84" s="7">
+        <v>2700000000</v>
+      </c>
+      <c r="M84" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="N84" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="O84" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="P84" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q84" s="8">
+        <v>2.78</v>
+      </c>
+      <c r="R84" s="8">
+        <v>459</v>
+      </c>
+      <c r="S84" s="8">
+        <v>10</v>
+      </c>
+      <c r="T84" s="8">
+        <v>30</v>
+      </c>
+      <c r="V84" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W84" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X84" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y84" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z84" s="4"/>
+      <c r="AB84" s="4"/>
+      <c r="AC84" s="4"/>
+      <c r="AF84" s="4"/>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4">
+        <v>20220211</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F85" s="4"/>
+      <c r="G85" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="I85" s="7">
+        <v>70000</v>
+      </c>
+      <c r="J85" s="8">
+        <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <v>700000000</v>
+      </c>
+      <c r="K85" s="11">
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="L85" s="7">
+        <v>2700000000</v>
+      </c>
+      <c r="M85" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="N85" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="O85" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="P85" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q85" s="8">
+        <v>2.78</v>
+      </c>
+      <c r="R85" s="8">
+        <v>459</v>
+      </c>
+      <c r="S85" s="8">
+        <v>10</v>
+      </c>
+      <c r="T85" s="8">
+        <v>30</v>
+      </c>
+      <c r="V85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W85" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X85" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y85" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z85" s="4"/>
+      <c r="AB85" s="4"/>
+      <c r="AC85" s="4"/>
+      <c r="AF85" s="4"/>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4">
+        <v>20220304</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="I86" s="7">
+        <v>70000</v>
+      </c>
+      <c r="J86" s="8">
+        <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <v>700000000</v>
+      </c>
+      <c r="K86" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="L86" s="7">
+        <v>2800000000</v>
+      </c>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="8">
+        <v>10</v>
+      </c>
+      <c r="T86" s="8">
+        <v>30</v>
+      </c>
+      <c r="V86" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W86" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X86" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y86" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z86" s="4"/>
+      <c r="AB86" s="4"/>
+      <c r="AC86" s="4"/>
+      <c r="AF86" s="4"/>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4">
+        <v>20220311</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F87" s="4"/>
+      <c r="G87" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="I87" s="7">
+        <v>70000</v>
+      </c>
+      <c r="J87" s="8">
+        <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <v>700000000</v>
+      </c>
+      <c r="K87" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="L87" s="7">
+        <v>2800000000</v>
+      </c>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="8">
+        <v>10</v>
+      </c>
+      <c r="T87" s="8">
+        <v>30</v>
+      </c>
+      <c r="V87" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W87" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X87" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y87" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z87" s="4"/>
+      <c r="AB87" s="4"/>
+      <c r="AC87" s="4"/>
+      <c r="AF87" s="4"/>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4">
+        <v>20220318</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F88" s="4"/>
+      <c r="G88" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="I88" s="7">
+        <v>70000</v>
+      </c>
+      <c r="J88" s="8">
+        <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <v>700000000</v>
+      </c>
+      <c r="K88" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="L88" s="7">
+        <v>2800000000</v>
+      </c>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="8">
+        <v>10</v>
+      </c>
+      <c r="T88" s="8">
+        <v>30</v>
+      </c>
+      <c r="V88" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W88" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X88" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y88" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z88" s="4"/>
+      <c r="AB88" s="4"/>
+      <c r="AC88" s="4"/>
+      <c r="AF88" s="4"/>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4">
+        <v>20220325</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F89" s="4"/>
+      <c r="G89" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="I89" s="7">
+        <v>70000</v>
+      </c>
+      <c r="J89" s="8">
+        <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <v>700000000</v>
+      </c>
+      <c r="K89" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="L89" s="7">
+        <v>2800000000</v>
+      </c>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="8">
+        <v>10</v>
+      </c>
+      <c r="T89" s="8">
+        <v>30</v>
+      </c>
+      <c r="V89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W89" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X89" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y89" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z89" s="4"/>
+      <c r="AB89" s="4"/>
+      <c r="AC89" s="4"/>
+      <c r="AF89" s="4"/>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4">
+        <v>20220407</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F90" s="4"/>
+      <c r="G90" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="I90" s="7">
+        <v>60000</v>
+      </c>
+      <c r="J90" s="8">
+        <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <v>600000000</v>
+      </c>
+      <c r="K90" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L90" s="7">
+        <v>3000000000</v>
+      </c>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="8">
+        <v>10</v>
+      </c>
+      <c r="T90" s="8">
+        <v>30</v>
+      </c>
+      <c r="V90" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W90" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X90" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y90" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z90" s="4"/>
+      <c r="AB90" s="4"/>
+      <c r="AC90" s="4"/>
+      <c r="AF90" s="4"/>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4">
+        <v>20220428</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F91" s="4"/>
+      <c r="G91" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="I91" s="7">
+        <v>60000</v>
+      </c>
+      <c r="J91" s="8">
+        <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <v>600000000</v>
+      </c>
+      <c r="K91" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L91" s="7">
+        <v>3000000000</v>
+      </c>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="8"/>
+      <c r="Q91" s="8"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="8">
+        <v>10</v>
+      </c>
+      <c r="T91" s="8">
+        <v>30</v>
+      </c>
+      <c r="V91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W91" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X91" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y91" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z91" s="4"/>
+      <c r="AB91" s="4"/>
+      <c r="AC91" s="4"/>
+      <c r="AF91" s="4"/>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4">
+        <v>20220428</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F92" s="4"/>
+      <c r="G92" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="I92" s="7">
+        <v>60000</v>
+      </c>
+      <c r="J92" s="8">
+        <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <v>600000000</v>
+      </c>
+      <c r="K92" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L92" s="7">
+        <v>3000000000</v>
+      </c>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="8"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="8">
+        <v>10</v>
+      </c>
+      <c r="T92" s="8">
+        <v>30</v>
+      </c>
+      <c r="V92" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W92" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X92" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y92" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z92" s="4"/>
+      <c r="AB92" s="4"/>
+      <c r="AC92" s="4"/>
+      <c r="AF92" s="4"/>
+    </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4">
+        <v>20220428</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F93" s="4"/>
+      <c r="G93" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="I93" s="7">
+        <v>60000</v>
+      </c>
+      <c r="J93" s="8">
+        <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <v>600000000</v>
+      </c>
+      <c r="K93" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L93" s="7">
+        <v>3000000000</v>
+      </c>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+      <c r="Q93" s="8"/>
+      <c r="R93" s="8"/>
+      <c r="S93" s="8">
+        <v>10</v>
+      </c>
+      <c r="T93" s="8">
+        <v>30</v>
+      </c>
+      <c r="V93" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W93" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X93" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y93" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z93" s="4"/>
+      <c r="AB93" s="4"/>
+      <c r="AC93" s="4"/>
+      <c r="AF93" s="4"/>
+    </row>
+    <row r="94" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4">
+        <v>20220505</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="I94" s="7">
+        <v>60000</v>
+      </c>
+      <c r="J94" s="8">
+        <f>Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <v>600000000</v>
+      </c>
+      <c r="K94" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L94" s="7">
+        <v>3000000000</v>
+      </c>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+      <c r="Q94" s="8"/>
+      <c r="R94" s="8"/>
+      <c r="S94" s="8">
+        <v>10</v>
+      </c>
+      <c r="T94" s="8">
+        <v>30</v>
+      </c>
+      <c r="V94" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W94" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X94" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y94" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z94" s="4"/>
+      <c r="AB94" s="4"/>
+      <c r="AC94" s="4"/>
+      <c r="AF94" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
